--- a/apiFrame/data/depttest.xlsx
+++ b/apiFrame/data/depttest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="60">
   <si>
     <t>测试用例ID</t>
   </si>
@@ -54,6 +54,9 @@
     <t>状态码</t>
   </si>
   <si>
+    <t>是否执行数据库</t>
+  </si>
+  <si>
     <t>后置参数</t>
   </si>
   <si>
@@ -87,6 +90,9 @@
     <t>{"Authorization":"{token}"}</t>
   </si>
   <si>
+    <t>否</t>
+  </si>
+  <si>
     <t>dept_001</t>
   </si>
   <si>
@@ -120,6 +126,9 @@
     <t>y</t>
   </si>
   <si>
+    <t>是</t>
+  </si>
+  <si>
     <t>dept_003</t>
   </si>
   <si>
@@ -159,22 +168,28 @@
     <t>{"id":"#D_id#","name":"name_update_repeat","parentId":"#other_dept#","siteCode":"500100"}</t>
   </si>
   <si>
+    <t>dept_008</t>
+  </si>
+  <si>
+    <t>删除部门（存在二级部门）</t>
+  </si>
+  <si>
+    <t>http://192.168.18.167:201/backend/system/dept/deleteDept?id=#D_id#</t>
+  </si>
+  <si>
+    <t>请先移除该部门的所有用户再删除</t>
+  </si>
+  <si>
     <t>dept_007</t>
   </si>
   <si>
-    <t>删除部门</t>
+    <t>删除二级部门</t>
   </si>
   <si>
     <t>http://192.168.18.167:201/backend/system/dept/deleteDept?id={id}</t>
   </si>
   <si>
-    <t>dept_008</t>
-  </si>
-  <si>
-    <t>删除部门（存在二级部门）</t>
-  </si>
-  <si>
-    <t>请先移除该部门的所有用户再删除</t>
+    <t>删除一级部门</t>
   </si>
   <si>
     <t>dept_009</t>
@@ -808,7 +823,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -827,6 +842,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1179,10 +1197,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1191,16 +1209,16 @@
     <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14" style="2" customWidth="1"/>
+    <col min="5" max="5" width="57.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="8.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="8.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="110.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="105.25" style="2" customWidth="1"/>
     <col min="9" max="9" width="10.25" style="2" customWidth="1"/>
     <col min="11" max="11" width="37.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.75" style="2" customWidth="1"/>
+    <col min="12" max="13" width="11.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1240,363 +1258,430 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="33" customHeight="1" spans="1:12">
+    <row r="2" s="1" customFormat="1" ht="33" customHeight="1" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1"/>
+        <v>17</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" s="1">
         <v>200</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" customFormat="1" ht="30" customHeight="1" spans="1:12">
+    <row r="3" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3"/>
-      <c r="H3"/>
+        <v>29</v>
+      </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L3">
         <v>200</v>
       </c>
+      <c r="M3" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" ht="30" customHeight="1" spans="1:12">
+    <row r="4" ht="30" customHeight="1" spans="1:13">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
         <v>30</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" t="s">
-        <v>28</v>
       </c>
       <c r="L4">
         <v>200</v>
       </c>
+      <c r="M4" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" ht="26" customHeight="1" spans="1:12">
+    <row r="5" ht="26" customHeight="1" spans="1:13">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L5">
         <v>200</v>
       </c>
+      <c r="M5" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="6" ht="39" customHeight="1" spans="1:12">
+    <row r="6" ht="39" customHeight="1" spans="1:13">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>33</v>
+      </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6">
         <v>200</v>
       </c>
+      <c r="M6" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="7" ht="45" customHeight="1" spans="1:12">
+    <row r="7" ht="45" customHeight="1" spans="1:13">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L7">
         <v>400</v>
       </c>
+      <c r="M7" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="8" ht="63" customHeight="1" spans="1:12">
+    <row r="8" ht="63" customHeight="1" spans="1:13">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L8">
         <v>200</v>
       </c>
+      <c r="M8" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="9" ht="63" customHeight="1" spans="1:12">
+    <row r="9" ht="63" customHeight="1" spans="1:13">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9"/>
-      <c r="F9" s="7" t="s">
-        <v>27</v>
+        <v>51</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9">
-        <v>200</v>
+        <v>400</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="10" ht="63" customHeight="1" spans="1:12">
+    <row r="10" ht="63" customHeight="1" spans="1:13">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E10"/>
-      <c r="F10" s="7" t="s">
-        <v>27</v>
+      <c r="F10" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L10">
-        <v>400</v>
+        <v>200</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="11" ht="63" customHeight="1" spans="1:12">
+    <row r="11" ht="63" customHeight="1" spans="1:13">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>49</v>
+        <v>57</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="E11"/>
-      <c r="F11" s="7" t="s">
-        <v>27</v>
+      <c r="F11" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L11">
+        <v>200</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" ht="63" customHeight="1" spans="1:13">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12">
         <v>400</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D9:E9"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" display="http://192.168.18.167:201/backend/system/dept/saveDept" tooltip="http://192.168.18.167:201/backend/system/dept/saveDept"/>
     <hyperlink ref="D5" r:id="rId1" display="http://192.168.18.167:201/backend/system/dept/saveDept" tooltip="http://192.168.18.167:201/backend/system/dept/saveDept"/>
     <hyperlink ref="D6" r:id="rId1" display="http://192.168.18.167:201/backend/system/dept/saveDept" tooltip="http://192.168.18.167:201/backend/system/dept/saveDept"/>
     <hyperlink ref="D7" r:id="rId1" display="http://192.168.18.167:201/backend/system/dept/saveDept" tooltip="http://192.168.18.167:201/backend/system/dept/saveDept"/>
     <hyperlink ref="D8" r:id="rId1" display="http://192.168.18.167:201/backend/system/dept/saveDept" tooltip="http://192.168.18.167:201/backend/system/dept/saveDept"/>
-    <hyperlink ref="D9" r:id="rId2" display="http://192.168.18.167:201/backend/system/dept/deleteDept?id={id}" tooltip="http://192.168.18.167:201/backend/system/dept/deleteDept?id={id}"/>
     <hyperlink ref="D10" r:id="rId2" display="http://192.168.18.167:201/backend/system/dept/deleteDept?id={id}" tooltip="http://192.168.18.167:201/backend/system/dept/deleteDept?id={id}"/>
+    <hyperlink ref="D9" r:id="rId3" display="http://192.168.18.167:201/backend/system/dept/deleteDept?id=#D_id#" tooltip="http://192.168.18.167:201/backend/system/dept/deleteDept?id=#D_id#"/>
+    <hyperlink ref="D12" r:id="rId2" display="http://192.168.18.167:201/backend/system/dept/deleteDept?id={id}" tooltip="http://192.168.18.167:201/backend/system/dept/deleteDept?id={id}"/>
+    <hyperlink ref="D2" r:id="rId4" display="http://192.168.18.167:201/backend/system/user/saveUser"/>
+    <hyperlink ref="D3" r:id="rId5" display="http://192.168.18.167:201/backend/system/dept/getDeptTree" tooltip="http://192.168.18.167:201/backend/system/dept/getDeptTree"/>
     <hyperlink ref="D11" r:id="rId2" display="http://192.168.18.167:201/backend/system/dept/deleteDept?id={id}" tooltip="http://192.168.18.167:201/backend/system/dept/deleteDept?id={id}"/>
-    <hyperlink ref="D2" r:id="rId3" display="http://192.168.18.167:201/backend/system/user/saveUser"/>
-    <hyperlink ref="D3" r:id="rId4" display="http://192.168.18.167:201/backend/system/dept/getDeptTree" tooltip="http://192.168.18.167:201/backend/system/dept/getDeptTree"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
